--- a/s3_trend_follow.xlsx
+++ b/s3_trend_follow.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -492,7 +492,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -500,20 +500,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Adobe Inc</t>
+          <t>PayPal Holdings Inc</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>565.5900268554688</v>
+        <v>283.3800048828125</v>
       </c>
       <c r="G2" t="n">
-        <v>556.9500122070312</v>
+        <v>278.1099853515625</v>
       </c>
       <c r="H2" t="n">
-        <v>6759900</v>
+        <v>23840900</v>
       </c>
       <c r="I2" t="n">
-        <v>2512961.666666667</v>
+        <v>8290225</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -541,20 +541,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atlassian Corporation PLC Class A</t>
+          <t>Adobe Inc</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>266.5599975585938</v>
+        <v>565.5900268554688</v>
       </c>
       <c r="G3" t="n">
-        <v>262.510009765625</v>
+        <v>556.9500122070312</v>
       </c>
       <c r="H3" t="n">
-        <v>3244200</v>
+        <v>6759900</v>
       </c>
       <c r="I3" t="n">
-        <v>1424195</v>
+        <v>2512961.666666667</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -574,39 +574,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>ILMN</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>572010</v>
+        <v>561010</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CrowdStrike Holdings Inc Class A</t>
+          <t>Illumina Inc</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>244.9100036621094</v>
+        <v>456.1600036621094</v>
       </c>
       <c r="G4" t="n">
-        <v>242.4199981689453</v>
+        <v>455.3500061035156</v>
       </c>
       <c r="H4" t="n">
-        <v>11955100</v>
+        <v>4516200</v>
       </c>
       <c r="I4" t="n">
-        <v>3957841.666666667</v>
+        <v>1027930.833333333</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>소프트웨어 및 IT서비스</t>
+          <t>헬스케어 장비 및 용품</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DOCU</t>
+          <t>TEAM</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -623,35 +623,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DocuSign Inc</t>
+          <t>Atlassian Corporation PLC Class A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>274.4299926757812</v>
+        <v>266.5599975585938</v>
       </c>
       <c r="G5" t="n">
-        <v>265.1600036621094</v>
+        <v>262.510009765625</v>
       </c>
       <c r="H5" t="n">
-        <v>18378300</v>
+        <v>3244200</v>
       </c>
       <c r="I5" t="n">
-        <v>3193814.166666667</v>
+        <v>1424200.833333333</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>소프트웨어 및 IT서비스</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>●power</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -660,7 +656,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALNY</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -668,20 +664,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Alnylam Pharmaceuticals Inc</t>
+          <t>Regeneron Pharmaceuticals Inc</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>176.8899993896484</v>
+        <v>537.9199829101562</v>
       </c>
       <c r="G6" t="n">
-        <v>175.6900024414062</v>
+        <v>536.010009765625</v>
       </c>
       <c r="H6" t="n">
-        <v>2440800</v>
+        <v>1705600</v>
       </c>
       <c r="I6" t="n">
-        <v>624125</v>
+        <v>914183.3333333334</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -692,7 +688,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -701,43 +697,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JOBS</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>522030</v>
+        <v>572010</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>51job Inc ADR</t>
+          <t>CrowdStrike Holdings Inc Class A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>74.65000152587891</v>
+        <v>244.9100036621094</v>
       </c>
       <c r="G7" t="n">
-        <v>74.43000030517578</v>
+        <v>241.3099975585938</v>
       </c>
       <c r="H7" t="n">
-        <v>1329100</v>
+        <v>11955100</v>
       </c>
       <c r="I7" t="n">
-        <v>228282.5</v>
+        <v>3957841.666666667</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>전문 및 상업 서비스</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>●power</t>
-        </is>
-      </c>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -746,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SPT</t>
+          <t>DOCU</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -754,31 +746,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sprout Social Inc Class A</t>
+          <t>DocuSign Inc</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>89.08999633789062</v>
+        <v>274.4299926757812</v>
       </c>
       <c r="G8" t="n">
-        <v>85.94000244140625</v>
+        <v>260.6099853515625</v>
       </c>
       <c r="H8" t="n">
-        <v>1740000</v>
+        <v>18378300</v>
       </c>
       <c r="I8" t="n">
-        <v>571929.1666666666</v>
+        <v>3193814.166666667</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>소프트웨어 및 IT서비스</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -787,43 +783,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STAY</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>533010</v>
+        <v>572010</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Extended Stay America Inc Unit</t>
+          <t>Zscaler Inc</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>20.45999908447266</v>
+        <v>218.6000061035156</v>
       </c>
       <c r="G9" t="n">
-        <v>20.45999908447266</v>
+        <v>215.1399993896484</v>
       </c>
       <c r="H9" t="n">
-        <v>48126600</v>
+        <v>7966000</v>
       </c>
       <c r="I9" t="n">
-        <v>3226318.708333333</v>
+        <v>2035593.333333333</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>호텔 및 엔터테인먼트</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>●power</t>
-        </is>
-      </c>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -832,39 +824,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AGIO</t>
+          <t>XP</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>562020</v>
+        <v>551020</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Agios Pharmaceuticals Inc</t>
+          <t>Xp Inc Class A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>60.45999908447266</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
-        <v>59.97999954223633</v>
+        <v>45.95999908447266</v>
       </c>
       <c r="H10" t="n">
-        <v>2127800</v>
+        <v>6424300</v>
       </c>
       <c r="I10" t="n">
-        <v>690901.6666666666</v>
+        <v>1308870</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>생명과학 및 메디컬 리서치</t>
+          <t>투자은행 및 서비스</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -873,43 +865,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SMPL</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>541020</v>
+        <v>572010</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Simply Good Foods Co</t>
+          <t>MongoDB Inc Class A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>35.86000061035156</v>
+        <v>384.0199890136719</v>
       </c>
       <c r="G11" t="n">
-        <v>35.84000015258789</v>
+        <v>373.1099853515625</v>
       </c>
       <c r="H11" t="n">
-        <v>17182500</v>
+        <v>3280000</v>
       </c>
       <c r="I11" t="n">
-        <v>786836.6666666666</v>
+        <v>840897.5</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>식품 및 담배</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>●power</t>
-        </is>
-      </c>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -918,39 +906,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>IHRT</t>
+          <t>ALNY</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>533020</v>
+        <v>562020</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>iHeartMedia Inc Class A</t>
+          <t>Alnylam Pharmaceuticals Inc</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25.65999984741211</v>
+        <v>176.8899993896484</v>
       </c>
       <c r="G12" t="n">
-        <v>25.35000038146973</v>
+        <v>172.25</v>
       </c>
       <c r="H12" t="n">
-        <v>5488100</v>
+        <v>2440800</v>
       </c>
       <c r="I12" t="n">
-        <v>1118509.166666667</v>
+        <v>624039.1666666666</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>미디어 및 출판</t>
+          <t>생명과학 및 메디컬 리서치</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -959,39 +947,43 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PRFT</t>
+          <t>JOBS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>572010</v>
+        <v>522030</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Perficient Inc</t>
+          <t>51job Inc ADR</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>79.76000213623047</v>
+        <v>74.65000152587891</v>
       </c>
       <c r="G13" t="n">
-        <v>79.18000030517578</v>
+        <v>74.43000030517578</v>
       </c>
       <c r="H13" t="n">
-        <v>1109100</v>
+        <v>1329100</v>
       </c>
       <c r="I13" t="n">
-        <v>304448.3333333333</v>
+        <v>228282.5</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>소프트웨어 및 IT서비스</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>전문 및 상업 서비스</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1000,39 +992,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>SPT</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>571010</v>
+        <v>572010</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rambus Inc</t>
+          <t>Sprout Social Inc Class A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>22.27000045776367</v>
+        <v>89.08999633789062</v>
       </c>
       <c r="G14" t="n">
-        <v>22.25</v>
+        <v>85.94000244140625</v>
       </c>
       <c r="H14" t="n">
-        <v>2582400</v>
+        <v>1740000</v>
       </c>
       <c r="I14" t="n">
-        <v>767543.3333333334</v>
+        <v>571929.1666666666</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>반도체 및 반도체 장비</t>
+          <t>소프트웨어 및 IT서비스</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1041,32 +1033,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DOMO</t>
+          <t>STAY</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>572010</v>
+        <v>533010</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Domo Inc Class B</t>
+          <t>Extended Stay America Inc Unit</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>78.16999816894531</v>
+        <v>20.45999908447266</v>
       </c>
       <c r="G15" t="n">
-        <v>76.73000335693359</v>
+        <v>20.45999908447266</v>
       </c>
       <c r="H15" t="n">
-        <v>2215800</v>
+        <v>48126600</v>
       </c>
       <c r="I15" t="n">
-        <v>414665</v>
+        <v>3226318.708333333</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>소프트웨어 및 IT서비스</t>
+          <t>호텔 및 엔터테인먼트</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1077,7 +1069,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1086,43 +1078,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SKIN</t>
+          <t>AGIO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>556010</v>
+        <v>562020</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Beauty Health Co Class A</t>
+          <t>Agios Pharmaceuticals Inc</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>18.79999923706055</v>
+        <v>60.45999908447266</v>
       </c>
       <c r="G16" t="n">
-        <v>14.40999984741211</v>
+        <v>59.97999954223633</v>
       </c>
       <c r="H16" t="n">
-        <v>11669300</v>
+        <v>2127800</v>
       </c>
       <c r="I16" t="n">
-        <v>1027789.575</v>
+        <v>690901.6666666666</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>기타 금융업</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>●power</t>
-        </is>
-      </c>
+          <t>생명과학 및 메디컬 리서치</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1131,32 +1119,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SWBI</t>
+          <t>SMPL</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>532050</v>
+        <v>541020</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Smith &amp; Wesson Brands Inc</t>
+          <t>Simply Good Foods Co</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>23.35000038146973</v>
+        <v>35.86000061035156</v>
       </c>
       <c r="G17" t="n">
-        <v>22.52000045776367</v>
+        <v>35.84000015258789</v>
       </c>
       <c r="H17" t="n">
-        <v>20931000</v>
+        <v>17182500</v>
       </c>
       <c r="I17" t="n">
-        <v>2103386.666666667</v>
+        <v>786836.6666666666</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>레저 상품</t>
+          <t>식품 및 담배</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1167,7 +1155,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1176,43 +1164,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AVXL</t>
+          <t>IHRT</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>562020</v>
+        <v>533020</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Anavex Life Sciences Corp</t>
+          <t>iHeartMedia Inc Class A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>22.13999938964844</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="G18" t="n">
-        <v>21.22999954223633</v>
+        <v>25.35000038146973</v>
       </c>
       <c r="H18" t="n">
-        <v>116590800</v>
+        <v>5488100</v>
       </c>
       <c r="I18" t="n">
-        <v>2877232.5</v>
+        <v>1118509.166666667</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>생명과학 및 메디컬 리서치</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>●power</t>
-        </is>
-      </c>
+          <t>미디어 및 출판</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1221,32 +1205,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VSTM</t>
+          <t>PZZA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>562020</v>
+        <v>533010</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Verastem Inc</t>
+          <t>Papa John's International Inc</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.769999980926514</v>
+        <v>103.8399963378906</v>
       </c>
       <c r="G19" t="n">
-        <v>4.769999980926514</v>
+        <v>103.5299987792969</v>
       </c>
       <c r="H19" t="n">
-        <v>27768600</v>
+        <v>2685800</v>
       </c>
       <c r="I19" t="n">
-        <v>2979935.833333333</v>
+        <v>458285</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>생명과학 및 메디컬 리서치</t>
+          <t>호텔 및 엔터테인먼트</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1257,7 +1241,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1266,43 +1250,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GFN</t>
+          <t>PRFT</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>522030</v>
+        <v>572010</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>General Finance Corp</t>
+          <t>Perficient Inc</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>19.01000022888184</v>
+        <v>79.76000213623047</v>
       </c>
       <c r="G20" t="n">
-        <v>18.98999977111816</v>
+        <v>79.18000030517578</v>
       </c>
       <c r="H20" t="n">
-        <v>3273800</v>
+        <v>1109100</v>
       </c>
       <c r="I20" t="n">
-        <v>136502.1583333333</v>
+        <v>304448.3333333333</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>전문 및 상업 서비스</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>●power</t>
-        </is>
-      </c>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1311,43 +1291,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TRCH</t>
+          <t>RMBS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>501020</v>
+        <v>571010</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Torchlight Energy Resources Inc</t>
+          <t>Rambus Inc</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6.269999980926514</v>
+        <v>22.27000045776367</v>
       </c>
       <c r="G21" t="n">
-        <v>5.989999771118164</v>
+        <v>22.25</v>
       </c>
       <c r="H21" t="n">
-        <v>277198800</v>
+        <v>2582400</v>
       </c>
       <c r="I21" t="n">
-        <v>21937716.66666667</v>
+        <v>767543.3333333334</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>오일 및 가스</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>●power</t>
-        </is>
-      </c>
+          <t>반도체 및 반도체 장비</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1356,32 +1332,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CTXR</t>
+          <t>DOMO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>562020</v>
+        <v>572010</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Citius Pharmaceuticals Inc</t>
+          <t>Domo Inc Class B</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.690000057220459</v>
+        <v>78.16999816894531</v>
       </c>
       <c r="G22" t="n">
-        <v>3.599999904632568</v>
+        <v>76.73000335693359</v>
       </c>
       <c r="H22" t="n">
-        <v>154165100</v>
+        <v>2215800</v>
       </c>
       <c r="I22" t="n">
-        <v>10552808.33333333</v>
+        <v>414665</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>생명과학 및 메디컬 리서치</t>
+          <t>소프트웨어 및 IT서비스</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1392,7 +1368,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,32 +1377,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TLC</t>
+          <t>SKIN</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>562020</v>
+        <v>556010</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Taiwan Liposome Co Ltd ADR</t>
+          <t>Beauty Health Co Class A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6.539999961853027</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="G23" t="n">
-        <v>6.369999885559082</v>
+        <v>14.40999984741211</v>
       </c>
       <c r="H23" t="n">
-        <v>18017200</v>
+        <v>11669300</v>
       </c>
       <c r="I23" t="n">
-        <v>184283.3333333333</v>
+        <v>1027789.575</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>생명과학 및 메디컬 리서치</t>
+          <t>기타 금융업</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1437,205 +1413,221 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>SWBI</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>601020</v>
+        <v>532050</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Public Storage</t>
+          <t>Smith &amp; Wesson Brands Inc</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>298.3599853515625</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="G24" t="n">
-        <v>295.8099975585938</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="H24" t="n">
-        <v>2007000</v>
+        <v>20931000</v>
       </c>
       <c r="I24" t="n">
-        <v>775857.5</v>
+        <v>2103386.666666667</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>주택 및 상업용 리츠</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>레저 상품</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>AVXL</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>561010</v>
+        <v>562020</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>West Pharmaceutical Services Inc</t>
+          <t>Anavex Life Sciences Corp</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>352.2900085449219</v>
+        <v>22.13999938964844</v>
       </c>
       <c r="G25" t="n">
-        <v>352.0299987792969</v>
+        <v>21.22999954223633</v>
       </c>
       <c r="H25" t="n">
-        <v>1401200</v>
+        <v>116590800</v>
       </c>
       <c r="I25" t="n">
-        <v>437391.6666666667</v>
+        <v>2877232.5</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>헬스케어 장비 및 용품</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>생명과학 및 메디컬 리서치</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>VSTM</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>572010</v>
+        <v>562020</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cloudflare Inc Class A</t>
+          <t>Verastem Inc</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>101.6800003051758</v>
+        <v>4.769999980926514</v>
       </c>
       <c r="G26" t="n">
-        <v>100.6900024414062</v>
+        <v>4.769999980926514</v>
       </c>
       <c r="H26" t="n">
-        <v>13151700</v>
+        <v>27768600</v>
       </c>
       <c r="I26" t="n">
-        <v>4352755.833333333</v>
+        <v>2979935.833333333</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>소프트웨어 및 IT서비스</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>생명과학 및 메디컬 리서치</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HUBS</t>
+          <t>GFN</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>572010</v>
+        <v>522030</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>HubSpot Inc</t>
+          <t>General Finance Corp</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>593.530029296875</v>
+        <v>19.01000022888184</v>
       </c>
       <c r="G27" t="n">
-        <v>572.8699951171875</v>
+        <v>18.98999977111816</v>
       </c>
       <c r="H27" t="n">
-        <v>1627900</v>
+        <v>3273800</v>
       </c>
       <c r="I27" t="n">
-        <v>510181.6666666667</v>
+        <v>136502.1583333333</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>소프트웨어 및 IT서비스</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>전문 및 상업 서비스</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GNRC</t>
+          <t>POWW</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>521020</v>
+        <v>521010</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Generac Holdings Inc</t>
+          <t>Ammo Munitions Inc</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>386.3999938964844</v>
+        <v>7.920000076293945</v>
       </c>
       <c r="G28" t="n">
-        <v>378.9400024414062</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="H28" t="n">
-        <v>12919800</v>
+        <v>37212400</v>
       </c>
       <c r="I28" t="n">
-        <v>845039.1666666666</v>
+        <v>3036202.5</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>건설장비 및 대형차, 기차, 배</t>
+          <t>우주항공 및 국방</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1646,287 +1638,311 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>LKCO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>533010</v>
+        <v>572010</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Domino's Pizza Inc</t>
+          <t>Luokung Technology Corp</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>460.1900024414062</v>
+        <v>2.369999885559082</v>
       </c>
       <c r="G29" t="n">
-        <v>457.2000122070312</v>
+        <v>2.240000009536743</v>
       </c>
       <c r="H29" t="n">
-        <v>2628600</v>
+        <v>154835600</v>
       </c>
       <c r="I29" t="n">
-        <v>629375</v>
+        <v>14406770.83333333</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>호텔 및 엔터테인먼트</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>TRCH</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>572010</v>
+        <v>501020</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Dynatrace Inc</t>
+          <t>Torchlight Energy Resources Inc</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>57.04999923706055</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="G30" t="n">
-        <v>56.15999984741211</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="H30" t="n">
-        <v>9837900</v>
+        <v>277198800</v>
       </c>
       <c r="I30" t="n">
-        <v>2002980.833333333</v>
+        <v>21937716.66666667</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>소프트웨어 및 IT서비스</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>오일 및 가스</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ASAN</t>
+          <t>CTXR</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>572010</v>
+        <v>562020</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Asana Inc Class A</t>
+          <t>Citius Pharmaceuticals Inc</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>57.79999923706055</v>
+        <v>3.690000057220459</v>
       </c>
       <c r="G31" t="n">
-        <v>53.61999893188477</v>
+        <v>3.599999904632568</v>
       </c>
       <c r="H31" t="n">
-        <v>6754200</v>
+        <v>154165100</v>
       </c>
       <c r="I31" t="n">
-        <v>1542742.5</v>
+        <v>10552808.33333333</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>소프트웨어 및 IT서비스</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>생명과학 및 메디컬 리서치</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MPLN</t>
+          <t>TLC</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>572010</v>
+        <v>562020</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Multiplan Corp Class A</t>
+          <t>Taiwan Liposome Co Ltd ADR</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>9.149999618530273</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="G32" t="n">
-        <v>9.100000381469727</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="H32" t="n">
-        <v>6281900</v>
+        <v>18017200</v>
       </c>
       <c r="I32" t="n">
-        <v>2210357.5</v>
+        <v>184283.3333333333</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>소프트웨어 및 IT서비스</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>생명과학 및 메디컬 리서치</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SWCH</t>
+          <t>CERC</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>571060</v>
+        <v>562020</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Switch Inc Class A</t>
+          <t>Cerecor Inc</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>21.92000007629395</v>
+        <v>3.670000076293945</v>
       </c>
       <c r="G33" t="n">
-        <v>21.85000038146973</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="H33" t="n">
-        <v>10818700</v>
+        <v>69195300</v>
       </c>
       <c r="I33" t="n">
-        <v>2298223.333333333</v>
+        <v>1501670</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>컴퓨터, 전화 및 가전제품</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>생명과학 및 메디컬 리서치</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NEA</t>
+          <t>APM</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>555010</v>
+        <v>562010</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nuveen Amt-Free Quality Municipal Income Fund</t>
+          <t>Aptorum Group Ltd Class A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15.5600004196167</v>
+        <v>3.430000066757202</v>
       </c>
       <c r="G34" t="n">
-        <v>15.53999996185303</v>
+        <v>3.269999980926514</v>
       </c>
       <c r="H34" t="n">
-        <v>1667000</v>
+        <v>41590300</v>
       </c>
       <c r="I34" t="n">
-        <v>513119.1666666667</v>
+        <v>836479.1666666666</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>다양한 금융서비스</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>KTRA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>501020</v>
+        <v>562020</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Denbury Inc</t>
+          <t>Kintara Therapeutics Inc</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>75.37999725341797</v>
+        <v>1.950000047683716</v>
       </c>
       <c r="G35" t="n">
-        <v>75</v>
+        <v>1.919999957084656</v>
       </c>
       <c r="H35" t="n">
-        <v>4738200</v>
+        <v>29112000</v>
       </c>
       <c r="I35" t="n">
-        <v>885919.1666666666</v>
+        <v>1009787.5</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>오일 및 가스</t>
+          <t>생명과학 및 메디컬 리서치</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -1937,89 +1953,97 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>BKYI</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>601020</v>
+        <v>571040</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PennyMac Mortgage Investment Trust</t>
+          <t>BIO-Key International Inc</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>20.85000038146973</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="G36" t="n">
-        <v>20.82999992370605</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="H36" t="n">
-        <v>2357400</v>
+        <v>3621600</v>
       </c>
       <c r="I36" t="n">
-        <v>868417.5</v>
+        <v>377200</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>주택 및 상업용 리츠</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>전자 장비 및 부품</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>WLL</t>
+          <t>NTEC</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>501020</v>
+        <v>562020</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Whiting Petroleum Corp</t>
+          <t>Intec Pharma Ltd</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>52.90000152587891</v>
+        <v>4.960000038146973</v>
       </c>
       <c r="G37" t="n">
-        <v>51.63000106811523</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="H37" t="n">
-        <v>1886100</v>
+        <v>22927300</v>
       </c>
       <c r="I37" t="n">
-        <v>676098.3333333334</v>
+        <v>1039166.666666667</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>오일 및 가스</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>생명과학 및 메디컬 리서치</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44367.80358701813</v>
+        <v>44367.96141389684</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2028,35 +2052,1080 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>SHOP</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>572010</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Shopify Inc Class A</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1466.869995117188</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1449.27001953125</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3943000</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1380984.166666667</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PSA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>601020</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Public Storage</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>298.3599853515625</v>
+      </c>
+      <c r="G39" t="n">
+        <v>295.8099975585938</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2007000</v>
+      </c>
+      <c r="I39" t="n">
+        <v>775857.5</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>주택 및 상업용 리츠</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>572010</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>DoorDash Inc Class A</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>167.3300018310547</v>
+      </c>
+      <c r="G40" t="n">
+        <v>164.5200042724609</v>
+      </c>
+      <c r="H40" t="n">
+        <v>20400000</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3470730</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>VEEV</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>561010</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Veeva Systems Inc Class A</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>306.7000122070312</v>
+      </c>
+      <c r="G41" t="n">
+        <v>305.3599853515625</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3152400</v>
+      </c>
+      <c r="I41" t="n">
+        <v>887315.8333333334</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>헬스케어 장비 및 용품</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>561010</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>West Pharmaceutical Services Inc</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>352.2900085449219</v>
+      </c>
+      <c r="G42" t="n">
+        <v>352.0299987792969</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1401200</v>
+      </c>
+      <c r="I42" t="n">
+        <v>437391.6666666667</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>헬스케어 장비 및 용품</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NET</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>572010</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Cloudflare Inc Class A</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>101.6800003051758</v>
+      </c>
+      <c r="G43" t="n">
+        <v>100.6900024414062</v>
+      </c>
+      <c r="H43" t="n">
+        <v>13151700</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4352755.833333333</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>XPEV</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>531010</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Xpeng Inc ADR</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>45.22999954223633</v>
+      </c>
+      <c r="G44" t="n">
+        <v>44.2400016784668</v>
+      </c>
+      <c r="H44" t="n">
+        <v>57973500</v>
+      </c>
+      <c r="I44" t="n">
+        <v>18764848.33333333</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>자동차 및 자동차 부품</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>HUBS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>572010</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>HubSpot Inc</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>593.530029296875</v>
+      </c>
+      <c r="G45" t="n">
+        <v>572.8699951171875</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1627900</v>
+      </c>
+      <c r="I45" t="n">
+        <v>510181.6666666667</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GNRC</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>521020</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Generac Holdings Inc</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>386.3999938964844</v>
+      </c>
+      <c r="G46" t="n">
+        <v>378.9400024414062</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12919800</v>
+      </c>
+      <c r="I46" t="n">
+        <v>845039.1666666666</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>건설장비 및 대형차, 기차, 배</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DPZ</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>533010</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Domino's Pizza Inc</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>460.1900024414062</v>
+      </c>
+      <c r="G47" t="n">
+        <v>457.2000122070312</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2628600</v>
+      </c>
+      <c r="I47" t="n">
+        <v>629375</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>호텔 및 엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PKI</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>561010</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>PerkinElmer Inc</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>150.6900024414062</v>
+      </c>
+      <c r="G48" t="n">
+        <v>149.6900024414062</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2685100</v>
+      </c>
+      <c r="I48" t="n">
+        <v>930275</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>헬스케어 장비 및 용품</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PAGS</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>522030</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>PagSeguro Digital Ltd Class A</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>55.09999847412109</v>
+      </c>
+      <c r="G49" t="n">
+        <v>53.59000015258789</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5636400</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2162563.333333333</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>전문 및 상업 서비스</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>572010</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Dynatrace Inc</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>57.04999923706055</v>
+      </c>
+      <c r="G50" t="n">
+        <v>56.15999984741211</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9837900</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2002980.833333333</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BILL</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>572010</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bill.com Holdings Inc</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>172.7400054931641</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6479800</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1331473.333333333</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>LSPD</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>572010</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Lightspeed POS Inc</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>79.94999694824219</v>
+      </c>
+      <c r="G52" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3669600</v>
+      </c>
+      <c r="I52" t="n">
+        <v>784880</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ASAN</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>572010</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Asana Inc Class A</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>57.79999923706055</v>
+      </c>
+      <c r="G53" t="n">
+        <v>53.61999893188477</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6754200</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1542742.5</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CLGX</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>522030</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Corelogic Inc</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>80</v>
+      </c>
+      <c r="G54" t="n">
+        <v>80</v>
+      </c>
+      <c r="H54" t="n">
+        <v>11387500</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1330518</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>전문 및 상업 서비스</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MPLN</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>572010</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Multiplan Corp Class A</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>9.149999618530273</v>
+      </c>
+      <c r="G55" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6281900</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2210357.5</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SWCH</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>571060</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Switch Inc Class A</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>21.92000007629395</v>
+      </c>
+      <c r="G56" t="n">
+        <v>21.85000038146973</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10818700</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2298223.333333333</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>컴퓨터, 전화 및 가전제품</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NEA</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>555010</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Nuveen Amt-Free Quality Municipal Income Fund</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>15.5600004196167</v>
+      </c>
+      <c r="G57" t="n">
+        <v>15.53999996185303</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1667000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>513119.1666666667</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>다양한 금융서비스</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>501020</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Denbury Inc</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>75.37999725341797</v>
+      </c>
+      <c r="G58" t="n">
+        <v>75</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4738200</v>
+      </c>
+      <c r="I58" t="n">
+        <v>885919.1666666666</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>오일 및 가스</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PHR</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>572010</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Phreesia Inc</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>58.81999969482422</v>
+      </c>
+      <c r="G59" t="n">
+        <v>58.20999908447266</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2411600</v>
+      </c>
+      <c r="I59" t="n">
+        <v>467365</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>소프트웨어 및 IT서비스</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>●power</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PMT</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>601020</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>PennyMac Mortgage Investment Trust</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>20.85000038146973</v>
+      </c>
+      <c r="G60" t="n">
+        <v>20.82999992370605</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2357400</v>
+      </c>
+      <c r="I60" t="n">
+        <v>868417.5</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>주택 및 상업용 리츠</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>WLL</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>501020</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Whiting Petroleum Corp</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>52.90000152587891</v>
+      </c>
+      <c r="G61" t="n">
+        <v>51.63000106811523</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1886100</v>
+      </c>
+      <c r="I61" t="n">
+        <v>676098.3333333334</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>오일 및 가스</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>QD</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>573010</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Qudian Inc ADR</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2.680000066757202</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.579999923706055</v>
+      </c>
+      <c r="H62" t="n">
+        <v>18354500</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6130365</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>핀테크</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>44367.96141389684</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>DHF</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D63" t="n">
         <v>555010</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>BNY Mellon High Yield Strategies Fund</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="F63" t="n">
         <v>3.210000038146973</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G63" t="n">
         <v>3.210000038146973</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H63" t="n">
         <v>5813200</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I63" t="n">
         <v>1547257.5</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>다양한 금융서비스</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
